--- a/public/data/lime/lime_table_togo.xlsx
+++ b/public/data/lime/lime_table_togo.xlsx
@@ -1315,13 +1315,13 @@
         <v>88</v>
       </c>
       <c r="D2" t="n">
-        <v>3.86</v>
+        <v>3.42</v>
       </c>
       <c r="E2" t="n">
-        <v>2.7</v>
+        <v>1.77</v>
       </c>
       <c r="F2" t="n">
-        <v>1.38</v>
+        <v>0.62</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.84</v>
+        <v>3.47</v>
       </c>
       <c r="K2" t="n">
-        <v>2.75</v>
+        <v>2.18</v>
       </c>
       <c r="L2" t="n">
-        <v>1.76</v>
+        <v>1.03</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -1380,16 +1380,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.91</v>
+        <v>1.47</v>
       </c>
       <c r="K3" t="n">
-        <v>0.74</v>
+        <v>0.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0.24</v>
+        <v>0.07</v>
       </c>
       <c r="M3" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -1427,16 +1427,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.45</v>
+        <v>2.03</v>
       </c>
       <c r="K4" t="n">
-        <v>1.26</v>
+        <v>0.73</v>
       </c>
       <c r="L4" t="n">
-        <v>0.43</v>
+        <v>0.1</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -1474,16 +1474,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.04</v>
+        <v>0.57</v>
       </c>
       <c r="K5" t="n">
-        <v>0.19</v>
+        <v>0.03</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -1503,13 +1503,13 @@
         <v>92</v>
       </c>
       <c r="D6" t="n">
-        <v>5.77</v>
+        <v>5.32</v>
       </c>
       <c r="E6" t="n">
-        <v>4.47</v>
+        <v>3.49</v>
       </c>
       <c r="F6" t="n">
-        <v>2.96</v>
+        <v>1.37</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1521,16 +1521,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.48</v>
+        <v>2.09</v>
       </c>
       <c r="K6" t="n">
-        <v>1.44</v>
+        <v>0.95</v>
       </c>
       <c r="L6" t="n">
-        <v>0.69</v>
+        <v>0.26</v>
       </c>
       <c r="M6" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -1803,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9</v>
+        <v>0.14</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1879,13 +1879,13 @@
         <v>102</v>
       </c>
       <c r="D14" t="n">
-        <v>3.97</v>
+        <v>3.38</v>
       </c>
       <c r="E14" t="n">
-        <v>2.63</v>
+        <v>1.38</v>
       </c>
       <c r="F14" t="n">
-        <v>1.14</v>
+        <v>0.09</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1897,16 +1897,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.57</v>
+        <v>1.88</v>
       </c>
       <c r="K14" t="n">
-        <v>1.17</v>
+        <v>0.58</v>
       </c>
       <c r="L14" t="n">
-        <v>0.45</v>
+        <v>0.12</v>
       </c>
       <c r="M14" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1926,13 +1926,13 @@
         <v>103</v>
       </c>
       <c r="D15" t="n">
-        <v>6.07</v>
+        <v>5.74</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="F15" t="n">
-        <v>3.75</v>
+        <v>2.62</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1944,16 +1944,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>5.75</v>
+        <v>5.42</v>
       </c>
       <c r="K15" t="n">
-        <v>4.64</v>
+        <v>3.96</v>
       </c>
       <c r="L15" t="n">
-        <v>3.39</v>
+        <v>2.37</v>
       </c>
       <c r="M15" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>104</v>
       </c>
       <c r="D16" t="n">
-        <v>5.49</v>
+        <v>5.1</v>
       </c>
       <c r="E16" t="n">
-        <v>4.21</v>
+        <v>3.36</v>
       </c>
       <c r="F16" t="n">
-        <v>2.72</v>
+        <v>1.44</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1991,16 +1991,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>4.55</v>
+        <v>4.15</v>
       </c>
       <c r="K16" t="n">
-        <v>3.35</v>
+        <v>2.64</v>
       </c>
       <c r="L16" t="n">
-        <v>2.18</v>
+        <v>1.4</v>
       </c>
       <c r="M16" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -2038,16 +2038,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.01</v>
+        <v>0.63</v>
       </c>
       <c r="K17" t="n">
-        <v>0.18</v>
+        <v>0.05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -2067,13 +2067,13 @@
         <v>106</v>
       </c>
       <c r="D18" t="n">
-        <v>6.72</v>
+        <v>6.32</v>
       </c>
       <c r="E18" t="n">
-        <v>5.46</v>
+        <v>4.6</v>
       </c>
       <c r="F18" t="n">
-        <v>4.01</v>
+        <v>2.73</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2085,13 +2085,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>5.43</v>
+        <v>5.02</v>
       </c>
       <c r="K18" t="n">
-        <v>4.21</v>
+        <v>3.34</v>
       </c>
       <c r="L18" t="n">
-        <v>2.79</v>
+        <v>1.53</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -2132,16 +2132,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.79</v>
+        <v>0.47</v>
       </c>
       <c r="K19" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -2179,16 +2179,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2.18</v>
+        <v>1.71</v>
       </c>
       <c r="K20" t="n">
-        <v>1.2</v>
+        <v>0.86</v>
       </c>
       <c r="L20" t="n">
-        <v>0.72</v>
+        <v>0.42</v>
       </c>
       <c r="M20" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -2208,13 +2208,13 @@
         <v>109</v>
       </c>
       <c r="D21" t="n">
-        <v>3.01</v>
+        <v>2.51</v>
       </c>
       <c r="E21" t="n">
-        <v>1.7</v>
+        <v>0.64</v>
       </c>
       <c r="F21" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2226,16 +2226,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>3.43</v>
+        <v>2.94</v>
       </c>
       <c r="K21" t="n">
-        <v>2.18</v>
+        <v>1.21</v>
       </c>
       <c r="L21" t="n">
-        <v>0.87</v>
+        <v>0.15</v>
       </c>
       <c r="M21" t="n">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2255,13 +2255,13 @@
         <v>110</v>
       </c>
       <c r="D22" t="n">
-        <v>5.26</v>
+        <v>4.8</v>
       </c>
       <c r="E22" t="n">
-        <v>3.86</v>
+        <v>2.87</v>
       </c>
       <c r="F22" t="n">
-        <v>2.21</v>
+        <v>0.9</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2273,16 +2273,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>4.66</v>
+        <v>4.2</v>
       </c>
       <c r="K22" t="n">
-        <v>3.38</v>
+        <v>2.5</v>
       </c>
       <c r="L22" t="n">
-        <v>2.05</v>
+        <v>1.05</v>
       </c>
       <c r="M22" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -2367,16 +2367,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1.01</v>
+        <v>0.63</v>
       </c>
       <c r="K24" t="n">
-        <v>0.23</v>
+        <v>0.07</v>
       </c>
       <c r="L24" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -2396,13 +2396,13 @@
         <v>113</v>
       </c>
       <c r="D25" t="n">
-        <v>4.94</v>
+        <v>4.56</v>
       </c>
       <c r="E25" t="n">
-        <v>3.83</v>
+        <v>3.02</v>
       </c>
       <c r="F25" t="n">
-        <v>2.54</v>
+        <v>1.42</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2414,13 +2414,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>5.58</v>
+        <v>5.21</v>
       </c>
       <c r="K25" t="n">
-        <v>4.4</v>
+        <v>3.61</v>
       </c>
       <c r="L25" t="n">
-        <v>3.02</v>
+        <v>1.9</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -2461,16 +2461,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>3.28</v>
+        <v>2.87</v>
       </c>
       <c r="K26" t="n">
-        <v>2.05</v>
+        <v>1.38</v>
       </c>
       <c r="L26" t="n">
-        <v>0.98</v>
+        <v>0.36</v>
       </c>
       <c r="M26" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -2508,16 +2508,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.87</v>
+        <v>1.46</v>
       </c>
       <c r="K27" t="n">
-        <v>0.71</v>
+        <v>0.39</v>
       </c>
       <c r="L27" t="n">
-        <v>0.22</v>
+        <v>0.05</v>
       </c>
       <c r="M27" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -2555,16 +2555,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.65</v>
+        <v>1.05</v>
       </c>
       <c r="K28" t="n">
-        <v>0.41</v>
+        <v>0.08</v>
       </c>
       <c r="L28" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.75</v>
+        <v>0.29</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2649,16 +2649,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1.57</v>
+        <v>1.06</v>
       </c>
       <c r="K30" t="n">
-        <v>0.38</v>
+        <v>0.11</v>
       </c>
       <c r="L30" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2696,16 +2696,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.12</v>
+        <v>0.63</v>
       </c>
       <c r="K31" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -2743,16 +2743,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1.58</v>
+        <v>1.13</v>
       </c>
       <c r="K32" t="n">
-        <v>0.49</v>
+        <v>0.17</v>
       </c>
       <c r="L32" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -2837,16 +2837,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1.5</v>
+        <v>0.52</v>
       </c>
       <c r="K34" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -2884,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>2.31</v>
+        <v>0.56</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -2893,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -2931,16 +2931,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>5.8</v>
+        <v>2.71</v>
       </c>
       <c r="K36" t="n">
-        <v>2.09</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -2978,16 +2978,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.85</v>
+        <v>1.05</v>
       </c>
       <c r="K37" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -3072,16 +3072,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>2.2</v>
+        <v>0.81</v>
       </c>
       <c r="K39" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3166,16 +3166,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>1.91</v>
+        <v>0.77</v>
       </c>
       <c r="K41" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
